--- a/input_data/sna_country_data/URY/cei.xlsx
+++ b/input_data/sna_country_data/URY/cei.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36162" uniqueCount="22117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39606" uniqueCount="22117">
   <si>
     <t>code</t>
   </si>
@@ -66988,10 +66988,10 @@
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1">
-        <v>-3264.8749993161591</v>
+        <v>-3264.8749993161441</v>
       </c>
       <c r="F27" s="1">
-        <v>-3264.8749993161591</v>
+        <v>-3264.8749993161441</v>
       </c>
       <c r="G27" s="1">
         <v>65128.014697722727</v>
@@ -67068,10 +67068,10 @@
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1">
-        <v>-3264.8749993161441</v>
+        <v>-3264.8749993161591</v>
       </c>
       <c r="F31" s="1">
-        <v>-3264.8749993161441</v>
+        <v>-3264.8749993161591</v>
       </c>
       <c r="G31" s="1">
         <v>65128.014697722727</v>
@@ -67176,53 +67176,53 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>22074</v>
+        <v>22072</v>
       </c>
       <c r="B36" t="s">
-        <v>22110</v>
+        <v>22108</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1">
-        <v>926.5806651800001</v>
+        <v>113976.0975413</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
+      <c r="H36" s="1">
+        <v>137582.86030768359</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>22072</v>
+        <v>22073</v>
       </c>
       <c r="B37" t="s">
-        <v>22108</v>
+        <v>22109</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1">
-        <v>113976.0975413</v>
-      </c>
-      <c r="F37" s="1"/>
+        <v>79482.446760280014</v>
+      </c>
+      <c r="F37" s="1">
+        <v>79482.446760280014</v>
+      </c>
       <c r="G37" s="1"/>
-      <c r="H37" s="1">
-        <v>137582.86030768359</v>
-      </c>
+      <c r="H37" s="1"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>22073</v>
+        <v>22074</v>
       </c>
       <c r="B38" t="s">
-        <v>22109</v>
+        <v>22110</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1">
-        <v>79482.446760280014</v>
-      </c>
-      <c r="F38" s="1">
-        <v>79482.446760280014</v>
-      </c>
+        <v>926.5806651800001</v>
+      </c>
+      <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
@@ -67810,7 +67810,7 @@
         <v>-10570.434075028639</v>
       </c>
       <c r="F27" s="1">
-        <v>-10570.434075028639</v>
+        <v>-10570.43407502865</v>
       </c>
       <c r="G27" s="1">
         <v>124508.5573505638</v>
@@ -67890,7 +67890,7 @@
         <v>-10570.43407502865</v>
       </c>
       <c r="F31" s="1">
-        <v>-10570.43407502865</v>
+        <v>-10570.434075028639</v>
       </c>
       <c r="G31" s="1">
         <v>124508.5573505638</v>
@@ -67966,7 +67966,7 @@
         <v>55330.055140544151</v>
       </c>
       <c r="H34" s="1">
-        <v>55330.055140544697</v>
+        <v>55330.055140544151</v>
       </c>
     </row>
     <row r="35">
@@ -67992,28 +67992,24 @@
         <v>55330.055140544697</v>
       </c>
       <c r="H35" s="1">
-        <v>55330.055140544151</v>
+        <v>55330.055140544697</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>22072</v>
+        <v>22074</v>
       </c>
       <c r="B36" t="s">
-        <v>22108</v>
+        <v>22110</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1">
-        <v>181558.9914336357</v>
+        <v>1410.7265588499999</v>
       </c>
       <c r="F36" s="1"/>
-      <c r="G36" s="1">
-        <v>310.92989817709997</v>
-      </c>
-      <c r="H36" s="1">
-        <v>223683.25268700649</v>
-      </c>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
@@ -68035,19 +68031,23 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>22074</v>
+        <v>22072</v>
       </c>
       <c r="B38" t="s">
-        <v>22110</v>
+        <v>22108</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1">
-        <v>1410.7265588499999</v>
+        <v>181558.9914336357</v>
       </c>
       <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
+      <c r="G38" s="1">
+        <v>310.92989817709997</v>
+      </c>
+      <c r="H38" s="1">
+        <v>223683.25268700649</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>
@@ -68632,10 +68632,10 @@
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1">
-        <v>-25017.388782343201</v>
+        <v>-25017.38878234318</v>
       </c>
       <c r="F27" s="1">
-        <v>-25017.388782343201</v>
+        <v>-25017.38878234318</v>
       </c>
       <c r="G27" s="1">
         <v>118456.4656790759</v>
@@ -68712,10 +68712,10 @@
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1">
-        <v>-25017.38878234318</v>
+        <v>-25017.388782343201</v>
       </c>
       <c r="F31" s="1">
-        <v>-25017.38878234318</v>
+        <v>-25017.388782343201</v>
       </c>
       <c r="G31" s="1">
         <v>118456.4656790759</v>
@@ -68782,10 +68782,10 @@
         <v>-4009.0753441289771</v>
       </c>
       <c r="E34" s="1">
-        <v>-63565.818181042087</v>
+        <v>-63565.770979082881</v>
       </c>
       <c r="F34" s="1">
-        <v>-63565.818181042087</v>
+        <v>-63565.770979082881</v>
       </c>
       <c r="G34" s="1">
         <v>43782.161676834643</v>
@@ -68808,10 +68808,10 @@
         <v>-4009.0753441289712</v>
       </c>
       <c r="E35" s="1">
-        <v>-63565.770979082881</v>
+        <v>-63565.818181042087</v>
       </c>
       <c r="F35" s="1">
-        <v>-63565.770979082881</v>
+        <v>-63565.818181042087</v>
       </c>
       <c r="G35" s="1">
         <v>43782.161676835007</v>
@@ -69601,16 +69601,16 @@
         <v>5442.5976345336967</v>
       </c>
       <c r="E34" s="1">
+        <v>-49773.892247343349</v>
+      </c>
+      <c r="F34" s="1">
         <v>-49773.892247342999</v>
-      </c>
-      <c r="F34" s="1">
-        <v>-49773.892247343349</v>
       </c>
       <c r="G34" s="1">
         <v>33283.712597372418</v>
       </c>
       <c r="H34" s="1">
-        <v>33283.712597372418</v>
+        <v>33283.712597372112</v>
       </c>
     </row>
     <row r="35">
@@ -69627,33 +69627,37 @@
         <v>5442.5976345336867</v>
       </c>
       <c r="E35" s="1">
+        <v>-49773.892247342999</v>
+      </c>
+      <c r="F35" s="1">
         <v>-49773.892247343349</v>
-      </c>
-      <c r="F35" s="1">
-        <v>-49773.892247342999</v>
       </c>
       <c r="G35" s="1">
         <v>33283.712597372112</v>
       </c>
       <c r="H35" s="1">
-        <v>33283.712597372112</v>
+        <v>33283.712597372418</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>22074</v>
+        <v>22072</v>
       </c>
       <c r="B36" t="s">
-        <v>22110</v>
+        <v>22108</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1">
-        <v>1640.019891895929</v>
+        <v>215925.528549476</v>
       </c>
       <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
+      <c r="G36" s="1">
+        <v>381.05244255449912</v>
+      </c>
+      <c r="H36" s="1">
+        <v>271956.46735150547</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
@@ -69675,23 +69679,19 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>22072</v>
+        <v>22074</v>
       </c>
       <c r="B38" t="s">
-        <v>22108</v>
+        <v>22110</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1">
-        <v>215925.528549476</v>
+        <v>1640.019891895929</v>
       </c>
       <c r="F38" s="1"/>
-      <c r="G38" s="1">
-        <v>381.05244255449912</v>
-      </c>
-      <c r="H38" s="1">
-        <v>271956.46735150547</v>
-      </c>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
     </row>
   </sheetData>
 </worksheet>
@@ -70277,7 +70277,7 @@
         <v>-47487.012322160852</v>
       </c>
       <c r="F27" s="1">
-        <v>-47487.012322160823</v>
+        <v>-47487.012322160852</v>
       </c>
       <c r="G27" s="1">
         <v>137422.3722114753</v>
@@ -70355,7 +70355,7 @@
         <v>-47487.012322160823</v>
       </c>
       <c r="F31" s="1">
-        <v>-47487.012322160852</v>
+        <v>-47487.012322160823</v>
       </c>
       <c r="G31" s="1">
         <v>137422.3722114753</v>
@@ -70419,7 +70419,7 @@
         <v>-14516.140951382629</v>
       </c>
       <c r="D34" s="1">
-        <v>-14516.15048177604</v>
+        <v>-14516.140951382629</v>
       </c>
       <c r="E34" s="1">
         <v>-63947.039175030113</v>
@@ -70431,7 +70431,7 @@
         <v>39248.472782472993</v>
       </c>
       <c r="H34" s="1">
-        <v>39248.472782472847</v>
+        <v>39248.472782472993</v>
       </c>
     </row>
     <row r="35">
@@ -70445,7 +70445,7 @@
         <v>-14516.15048177604</v>
       </c>
       <c r="D35" s="1">
-        <v>-14516.140951382629</v>
+        <v>-14516.15048177604</v>
       </c>
       <c r="E35" s="1">
         <v>-63947.039175029808</v>
@@ -70457,46 +70457,46 @@
         <v>39248.472782472847</v>
       </c>
       <c r="H35" s="1">
-        <v>39248.472782472993</v>
+        <v>39248.472782472847</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>22072</v>
+        <v>22073</v>
       </c>
       <c r="B36" t="s">
-        <v>22108</v>
+        <v>22109</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1">
-        <v>239376.743428952</v>
-      </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1">
-        <v>402.67289956090139</v>
-      </c>
-      <c r="H36" s="1">
-        <v>298520.24294644757</v>
-      </c>
+        <v>200663.39336498949</v>
+      </c>
+      <c r="F36" s="1">
+        <v>200663.39336498949</v>
+      </c>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>22073</v>
+        <v>22072</v>
       </c>
       <c r="B37" t="s">
-        <v>22109</v>
+        <v>22108</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1">
-        <v>200663.39336498949</v>
-      </c>
-      <c r="F37" s="1">
-        <v>200663.39336498949</v>
-      </c>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
+        <v>239376.743428952</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1">
+        <v>402.67289956090139</v>
+      </c>
+      <c r="H37" s="1">
+        <v>298520.24294644757</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
@@ -72064,10 +72064,10 @@
         <v>-60032.164387225363</v>
       </c>
       <c r="G34" s="1">
+        <v>50492.474199902237</v>
+      </c>
+      <c r="H34" s="1">
         <v>50492.474199901873</v>
-      </c>
-      <c r="H34" s="1">
-        <v>50492.474199902237</v>
       </c>
     </row>
     <row r="35">
@@ -72090,49 +72090,49 @@
         <v>-60032.164387225363</v>
       </c>
       <c r="G35" s="1">
+        <v>50492.474199901873</v>
+      </c>
+      <c r="H35" s="1">
         <v>50492.474199902237</v>
-      </c>
-      <c r="H35" s="1">
-        <v>50492.474199901873</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>22072</v>
+        <v>22073</v>
       </c>
       <c r="B36" t="s">
-        <v>22108</v>
+        <v>22109</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1">
-        <v>272538.25067318691</v>
-      </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1">
-        <v>456.40441621169998</v>
-      </c>
-      <c r="H36" s="1">
-        <v>335741.85541967727</v>
-      </c>
+        <v>264574.52162751998</v>
+      </c>
+      <c r="F36" s="1">
+        <v>264574.52162751998</v>
+      </c>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>22073</v>
+        <v>22072</v>
       </c>
       <c r="B37" t="s">
-        <v>22109</v>
+        <v>22108</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1">
-        <v>264574.52162751998</v>
-      </c>
-      <c r="F37" s="1">
-        <v>264574.52162751998</v>
-      </c>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
+        <v>272538.25067318691</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1">
+        <v>456.40441621169998</v>
+      </c>
+      <c r="H37" s="1">
+        <v>335741.85541967727</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
